--- a/Perceivable/WCAG_1.1.1_NonTextContent_Narayanan_Palani_TestCase_v1.xlsx
+++ b/Perceivable/WCAG_1.1.1_NonTextContent_Narayanan_Palani_TestCase_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Udemy\13 Write Accessibility Testing-Test Cases\webAccessibilityTestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Udemy_Supreme_Quality\13 Write Accessibility Testing-Test Cases\GithubRepo\webAccessibilityTestCases\Perceivable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB692116-B179-4420-ADD0-C318EEDE1C24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3F96C9-3B94-425E-B7AF-54E77CE771FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20730" yWindow="525" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Test Case Worksheet</t>
   </si>
@@ -194,6 +194,9 @@
     <t>Screen reader should read using the 'alternative text' of the Non Text Content
 Example:
 If it is an logo image of ABC, navigating using down arrow should read like 'Graphics ABC Logo Image'</t>
+  </si>
+  <si>
+    <t>Step 4</t>
   </si>
 </sst>
 </file>
@@ -730,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1008,9 @@
       <c r="A17" s="9"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="21" t="s">
         <v>47</v>
       </c>
